--- a/ProjectWarshipbattle/Data/ShipNumList/船リスト.xlsx
+++ b/ProjectWarshipbattle/Data/ShipNumList/船リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4163A2-23A4-4501-9B56-3B0C49DE07AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8558C850-4D9D-4DCF-9D0E-E112E67FD90C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>4000から始まります</t>
     <rPh sb="6" eb="7">
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>yamashiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gneisenau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dunkerque</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -372,7 +380,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -398,6 +406,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
@@ -500,7 +511,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -525,6 +536,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
@@ -679,5 +693,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>